--- a/Theme1/testcase.xlsx
+++ b/Theme1/testcase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadac\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadac\git\InformationExperiment\Theme1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01B78B7D-F844-4967-8C98-8E5EB77E8CF6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F987BB-DB1C-4DB9-B6CC-62E2CF953F99}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="8385" xr2:uid="{F4CE9E9A-C178-445B-87C0-A2997AA9AE51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="34">
   <si>
     <t>確認事項</t>
     <rPh sb="0" eb="4">
@@ -212,6 +212,26 @@
     <rPh sb="3" eb="5">
       <t>ジョウタイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>height</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -258,9 +278,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F46812-9440-4E6A-A9AB-76741AD86005}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1007,7 +1030,67 @@
         <v>25</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C19:C22"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Theme1/testcase.xlsx
+++ b/Theme1/testcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadac\git\InformationExperiment\Theme1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kent/git/InformationExperiment/Theme1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F987BB-DB1C-4DB9-B6CC-62E2CF953F99}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D9F9A-BF6A-B647-978C-6FC8B8007617}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="8385" xr2:uid="{F4CE9E9A-C178-445B-87C0-A2997AA9AE51}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F4CE9E9A-C178-445B-87C0-A2997AA9AE51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="38">
   <si>
     <t>確認事項</t>
     <rPh sb="0" eb="4">
@@ -205,33 +205,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>任意の状態</t>
+    <t>create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常終了しない</t>
     <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>create</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>height</t>
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期状態</t>
+    <rPh sb="0" eb="2">
+      <t>ショk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長方形が作成されている</t>
+    <rPh sb="0" eb="2">
+      <t>チョウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再入力が促される</t>
+    <rPh sb="0" eb="2">
+      <t>サイニュウリョk</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -239,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,24 +624,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F46812-9440-4E6A-A9AB-76741AD86005}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -639,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -653,7 +678,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -662,7 +687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -676,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -685,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -699,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -708,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -722,7 +747,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -731,7 +756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -745,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -754,7 +779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -768,7 +793,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -777,7 +802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -791,7 +816,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -800,7 +825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -814,7 +839,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -823,7 +848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -837,7 +862,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
@@ -846,7 +871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -860,7 +885,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -869,7 +894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -883,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -892,7 +917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -906,7 +931,7 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -915,7 +940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -929,7 +954,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -938,7 +963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -952,7 +977,7 @@
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -961,7 +986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -975,7 +1000,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -984,7 +1009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -998,7 +1023,7 @@
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -1007,7 +1032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1046,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
@@ -1030,66 +1055,152 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="C19:C22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Theme1/testcase.xlsx
+++ b/Theme1/testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kent/git/InformationExperiment/Theme1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D9F9A-BF6A-B647-978C-6FC8B8007617}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7017585A-4AA6-C545-88EF-5080CF9A7CAD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F4CE9E9A-C178-445B-87C0-A2997AA9AE51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
   <si>
     <t>確認事項</t>
     <rPh sb="0" eb="4">
@@ -225,20 +225,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>異常終了しない</t>
-    <rPh sb="0" eb="2">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>create画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期状態</t>
     <rPh sb="0" eb="2">
       <t>ショk</t>
@@ -246,16 +232,101 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>長方形が作成されている</t>
-    <rPh sb="0" eb="2">
-      <t>チョウホ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>再入力が促される</t>
     <rPh sb="0" eb="2">
       <t>サイニュウリョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長方形が作成される</t>
+    <rPh sb="0" eb="2">
+      <t>チョウホウケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再入力が促される</t>
+    <rPh sb="0" eb="2">
+      <t>サイニュウリョクガウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 異常ケース</t>
+    <rPh sb="0" eb="6">
+      <t>イジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常ケース</t>
+    <rPh sb="0" eb="1">
+      <t>イジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ずみ</t>
+    <rPh sb="0" eb="2">
+      <t>トウロk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はみ出し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長方形でない</t>
+    <rPh sb="0" eb="2">
+      <t>チョウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期状態/create</t>
+    <rPh sb="0" eb="1">
+      <t>ショk</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case18/create</t>
+    <rPh sb="294" eb="296">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case18/move</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長方形が移動する</t>
+    <rPh sb="0" eb="2">
+      <t>チョウホウケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長方形</t>
+    <rPh sb="0" eb="2">
+      <t>チョウホ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -303,12 +374,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,24 +698,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F46812-9440-4E6A-A9AB-76741AD86005}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -663,8 +738,11 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -678,7 +756,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -687,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -701,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -710,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -724,7 +802,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -733,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -747,7 +825,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -756,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -770,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -779,7 +857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -793,7 +871,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -802,7 +880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -816,7 +894,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -825,7 +903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -839,7 +917,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -848,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -862,7 +940,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
@@ -871,7 +949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -885,7 +963,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -894,7 +972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -908,7 +986,7 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -917,7 +995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -931,7 +1009,7 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -940,7 +1018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -954,7 +1032,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -963,7 +1041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -977,7 +1055,7 @@
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -986,7 +1064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -1009,7 +1087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1023,7 +1101,7 @@
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -1032,7 +1110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1046,7 +1124,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
@@ -1055,7 +1133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1069,16 +1147,16 @@
         <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>30</v>
@@ -1089,11 +1167,9 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>31</v>
@@ -1104,11 +1180,9 @@
       <c r="F21">
         <v>10</v>
       </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>32</v>
@@ -1119,52 +1193,51 @@
       <c r="F22">
         <v>10</v>
       </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1172,14 +1245,12 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1187,20 +1258,320 @@
       <c r="F26">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30">
+        <v>-10</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="1">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1">
+        <v>22</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1">
+        <v>22</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1"/>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43">
+        <v>-10</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
+  <mergeCells count="30">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Theme1/testcase.xlsx
+++ b/Theme1/testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kent/git/InformationExperiment/Theme1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7017585A-4AA6-C545-88EF-5080CF9A7CAD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E53F69-7EB6-EC41-A9C8-FEEFC5472B67}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F4CE9E9A-C178-445B-87C0-A2997AA9AE51}"/>
   </bookViews>

--- a/Theme1/testcase.xlsx
+++ b/Theme1/testcase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kent/git/InformationExperiment/Theme1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadac\git\InformationExperiment\Theme1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E53F69-7EB6-EC41-A9C8-FEEFC5472B67}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFD3E93A-E25A-4E73-A4DB-0893F4B78BAA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F4CE9E9A-C178-445B-87C0-A2997AA9AE51}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -298,16 +299,13 @@
   <si>
     <t>初期状態/create</t>
     <rPh sb="0" eb="1">
-      <t>ショk</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ガメn</t>
+      <t>ショkガメn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>case18/create</t>
-    <rPh sb="294" eb="296">
+    <rPh sb="0" eb="13">
       <t>ガメn</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -335,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,23 +698,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F46812-9440-4E6A-A9AB-76741AD86005}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -742,7 +740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -765,7 +763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -788,7 +786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -811,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -834,7 +832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -857,7 +855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -880,7 +878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -903,7 +901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -926,7 +924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -949,7 +947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -972,7 +970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -995,7 +993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1018,7 +1016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +1039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1064,7 +1062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1087,7 +1085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1110,7 +1108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1133,7 +1131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1156,7 +1154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>30</v>
@@ -1169,7 +1167,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>31</v>
@@ -1182,7 +1180,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>32</v>
@@ -1195,7 +1193,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>35</v>
@@ -1208,7 +1206,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1234,7 +1232,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>30</v>
@@ -1247,7 +1245,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
         <v>31</v>
@@ -1260,7 +1258,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>32</v>
@@ -1273,7 +1271,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
         <v>35</v>
@@ -1286,7 +1284,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -1325,7 +1323,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -1338,7 +1336,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -1351,7 +1349,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
         <v>35</v>
@@ -1364,7 +1362,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1388,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
         <v>30</v>
@@ -1403,7 +1401,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>31</v>
@@ -1416,7 +1414,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
         <v>32</v>
@@ -1429,7 +1427,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
         <v>35</v>
@@ -1442,7 +1440,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -1465,7 +1463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
         <v>29</v>
@@ -1478,7 +1476,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>30</v>
@@ -1491,7 +1489,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>29</v>
@@ -1527,7 +1525,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" t="s">
         <v>30</v>
@@ -1542,21 +1540,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="G24:G28"/>
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="E34:E38"/>
     <mergeCell ref="G19:G23"/>
@@ -1572,6 +1555,21 @@
     <mergeCell ref="E19:E23"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Theme1/testcase.xlsx
+++ b/Theme1/testcase.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadac\git\InformationExperiment\Theme1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kent/git/InformationExperiment/Theme1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFD3E93A-E25A-4E73-A4DB-0893F4B78BAA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE555CF-4A44-9E4B-851E-EBBEB6C6F08B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F4CE9E9A-C178-445B-87C0-A2997AA9AE51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{F4CE9E9A-C178-445B-87C0-A2997AA9AE51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="78">
   <si>
     <t>確認事項</t>
     <rPh sb="0" eb="4">
@@ -258,20 +257,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> 異常ケース</t>
-    <rPh sb="0" eb="6">
-      <t>イジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>異常ケース</t>
-    <rPh sb="0" eb="1">
-      <t>イジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録ずみ</t>
     <rPh sb="0" eb="2">
       <t>トウロk</t>
@@ -297,24 +282,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初期状態/create</t>
-    <rPh sb="0" eb="1">
-      <t>ショkガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case18/create</t>
-    <rPh sb="0" eb="13">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case18/move</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>長方形が移動する</t>
     <rPh sb="0" eb="2">
       <t>チョウホウケ</t>
@@ -326,6 +293,178 @@
     <rPh sb="0" eb="2">
       <t>チョウホ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>my</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長方形が変形される</t>
+    <rPh sb="0" eb="2">
+      <t>チョウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常ケース</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case18/case1</t>
+    <rPh sb="0" eb="7">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case18/case2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case18/case1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case24/case2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case18/case3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case18/case4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case29/case3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長方形が削除される</t>
+    <rPh sb="0" eb="2">
+      <t>チョウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム(仮)に遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>カr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既知の仕様による無限ループ対策</t>
+    <rPh sb="0" eb="2">
+      <t>キチノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常ケース</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case33</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何もしない</t>
+    <rPh sb="0" eb="1">
+      <t>ナニm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case24/case5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての長方形が削除されている</t>
+    <rPh sb="0" eb="14">
+      <t>スベテチョウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長方形1</t>
+    <rPh sb="0" eb="2">
+      <t>チョウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長方形2</t>
+    <rPh sb="0" eb="2">
+      <t>チョウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長方形が作成される</t>
+    <rPh sb="0" eb="2">
+      <t>チョウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case24/case6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外ケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 例外ケース</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -333,7 +472,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,8 +511,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -696,25 +838,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F46812-9440-4E6A-A9AB-76741AD86005}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42:G44"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62:G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -737,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -763,7 +905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -786,7 +928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -809,7 +951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -832,7 +974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -855,7 +997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -878,7 +1020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -901,7 +1043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -924,7 +1066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -947,7 +1089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -970,7 +1112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -993,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1016,7 +1158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +1181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1085,7 +1227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1131,445 +1273,1113 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>18</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>44</v>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21">
         <v>10</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22">
         <v>10</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>19</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>45</v>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26">
         <v>10</v>
       </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="1"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27">
         <v>10</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>20</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>44</v>
+      <c r="D29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
       <c r="F30">
         <v>-10</v>
       </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="1"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31">
         <v>10</v>
       </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32">
         <v>10</v>
       </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>21</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>44</v>
+      <c r="D34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2"/>
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="1"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2"/>
       <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
       <c r="F37">
         <v>10</v>
       </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="1"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2"/>
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="1">
+        <v>43</v>
+      </c>
+      <c r="C39" s="2">
         <v>22</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>46</v>
+      <c r="D39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2"/>
+      <c r="B40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="1"/>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="F40">
         <v>10</v>
       </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="1"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2"/>
       <c r="B41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41">
         <v>10</v>
       </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1">
-        <v>22</v>
-      </c>
-      <c r="D42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="1"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2"/>
       <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43">
         <v>-10</v>
       </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="1"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2"/>
       <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44">
         <v>10</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="2">
+        <v>24</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2"/>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2"/>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2"/>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2"/>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="2">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2"/>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="2">
+        <v>26</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="2"/>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2"/>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="2">
+        <v>27</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="2"/>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="2"/>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="2">
+        <v>28</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="2"/>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60">
+        <v>-10</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="2"/>
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="2">
+        <v>29</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="2"/>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2"/>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2"/>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2"/>
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="2">
+        <v>30</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2"/>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2"/>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71">
+        <v>32</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" t="s">
+        <v>59</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73">
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>60</v>
+      </c>
+      <c r="H73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74">
+        <v>35</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" t="s">
+        <v>62</v>
+      </c>
+      <c r="G74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75">
+        <v>36</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="2">
+        <v>37</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2"/>
+      <c r="B77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="2">
+        <v>38</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2"/>
+      <c r="B79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="E34:E38"/>
+  <mergeCells count="75">
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="G53:G55"/>
     <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
     <mergeCell ref="G29:G33"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="D19:D23"/>
     <mergeCell ref="E19:E23"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="D29:D33"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="G24:G28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E29:E33"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="G39:G41"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="D34:D38"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="D42:D44"/>
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="G45:G49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Theme1/testcase.xlsx
+++ b/Theme1/testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kent/git/InformationExperiment/Theme1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE555CF-4A44-9E4B-851E-EBBEB6C6F08B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD6BFD8-CBC5-DE43-A85B-CCA8DF2FCADA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{F4CE9E9A-C178-445B-87C0-A2997AA9AE51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{F4CE9E9A-C178-445B-87C0-A2997AA9AE51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="74">
   <si>
     <t>確認事項</t>
     <rPh sb="0" eb="4">
@@ -122,13 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>displayBoardを実行する</t>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実行を終了する</t>
     <rPh sb="0" eb="2">
       <t>ジッコウ</t>
@@ -368,24 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>case4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホーム(仮)に遷移する</t>
-    <rPh sb="0" eb="1">
-      <t>カr</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既知の仕様による無限ループ対策</t>
-    <rPh sb="0" eb="2">
-      <t>キチノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>N/A</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -401,14 +376,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>case33</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>case5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -465,6 +432,20 @@
   </si>
   <si>
     <t xml:space="preserve"> 例外ケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>displayBoardに遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理の有無は考慮しない</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -838,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F46812-9440-4E6A-A9AB-76741AD86005}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62:G66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -867,10 +848,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -879,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -893,10 +874,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -904,6 +885,9 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -916,10 +900,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -927,6 +911,9 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -939,10 +926,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -950,6 +937,9 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -962,10 +952,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -973,6 +963,9 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -985,10 +978,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -996,6 +989,9 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -1008,10 +1004,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1019,6 +1015,9 @@
       <c r="G7" t="s">
         <v>13</v>
       </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -1031,16 +1030,19 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1054,16 +1056,19 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1077,10 +1082,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
@@ -1088,6 +1093,9 @@
       <c r="G10" t="s">
         <v>7</v>
       </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -1100,10 +1108,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -1111,6 +1119,9 @@
       <c r="G11" t="s">
         <v>8</v>
       </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -1123,17 +1134,20 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -1146,17 +1160,20 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -1169,17 +1186,20 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -1192,17 +1212,20 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -1215,16 +1238,19 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1238,16 +1264,16 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1261,45 +1287,45 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
       </c>
       <c r="C19" s="2">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1312,7 +1338,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1325,7 +1351,7 @@
     <row r="22" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1338,7 +1364,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1353,31 +1379,31 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
         <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
         <v>37</v>
-      </c>
-      <c r="H24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1390,7 +1416,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1403,7 +1429,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1416,7 +1442,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1431,31 +1457,31 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2">
         <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1468,7 +1494,7 @@
     <row r="31" spans="1:8">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1481,7 +1507,7 @@
     <row r="32" spans="1:8">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1494,7 +1520,7 @@
     <row r="33" spans="1:8">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1509,31 +1535,31 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2">
         <v>21</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1546,7 +1572,7 @@
     <row r="36" spans="1:8">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1559,7 +1585,7 @@
     <row r="37" spans="1:8">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1572,7 +1598,7 @@
     <row r="38" spans="1:8">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1587,28 +1613,28 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2">
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2"/>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1621,7 +1647,7 @@
     <row r="41" spans="1:8">
       <c r="A41" s="2"/>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1636,31 +1662,31 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2">
         <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2"/>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1673,7 +1699,7 @@
     <row r="44" spans="1:8">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1688,28 +1714,28 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="2">
         <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1722,7 +1748,7 @@
     <row r="47" spans="1:8">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1735,7 +1761,7 @@
     <row r="48" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1748,7 +1774,7 @@
     <row r="49" spans="1:8">
       <c r="A49" s="2"/>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1763,31 +1789,31 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2"/>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1800,7 +1826,7 @@
     <row r="52" spans="1:8">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1812,31 +1838,31 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" s="2">
         <v>26</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2"/>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1849,7 +1875,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="2"/>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1861,34 +1887,34 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" s="2">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2"/>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1901,7 +1927,7 @@
     <row r="58" spans="1:8">
       <c r="A58" s="2"/>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1913,34 +1939,34 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="2">
         <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2"/>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1953,7 +1979,7 @@
     <row r="61" spans="1:8">
       <c r="A61" s="2"/>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1968,28 +1994,28 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" s="2">
         <v>29</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2"/>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2002,7 +2028,7 @@
     <row r="64" spans="1:8">
       <c r="A64" s="2"/>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2015,7 +2041,7 @@
     <row r="65" spans="1:8">
       <c r="A65" s="2"/>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2028,7 +2054,7 @@
     <row r="66" spans="1:8">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2040,34 +2066,34 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2">
         <v>30</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2"/>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2080,7 +2106,7 @@
     <row r="69" spans="1:8">
       <c r="A69" s="2"/>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2092,25 +2118,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C70">
         <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2118,22 +2144,22 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C71">
         <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E71" t="s">
-        <v>59</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="F71" t="s">
+        <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2141,190 +2167,118 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C72">
         <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="F72" t="s">
+        <v>58</v>
       </c>
       <c r="G72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73">
-        <v>34</v>
-      </c>
-      <c r="D73" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73" t="s">
-        <v>65</v>
+      <c r="D73" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
-      <c r="G73" t="s">
-        <v>60</v>
-      </c>
-      <c r="H73" t="s">
-        <v>61</v>
+      <c r="G73" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" t="s">
+      <c r="A74" s="2"/>
+      <c r="B74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B74" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74">
+      <c r="B75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="2">
         <v>35</v>
       </c>
-      <c r="D74" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F74" t="s">
-        <v>62</v>
-      </c>
-      <c r="G74" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75">
-        <v>36</v>
-      </c>
-      <c r="D75" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F75" t="s">
-        <v>62</v>
-      </c>
-      <c r="G75" t="s">
-        <v>68</v>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="2">
-        <v>37</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
       <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="2"/>
-      <c r="B77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77">
         <v>2</v>
       </c>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="2">
-        <v>38</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="2"/>
-      <c r="B79" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79">
-        <v>2</v>
-      </c>
-      <c r="G79" s="2"/>
+      <c r="G76" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A73:A74"/>
     <mergeCell ref="G67:G69"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="C62:C66"/>
     <mergeCell ref="D62:D66"/>
     <mergeCell ref="E62:E66"/>
     <mergeCell ref="G62:G66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="D59:D61"/>

--- a/Theme1/testcase.xlsx
+++ b/Theme1/testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kent/git/InformationExperiment/Theme1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD6BFD8-CBC5-DE43-A85B-CCA8DF2FCADA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4F22AA-049B-8248-91C0-6FC5DB75ACC1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{F4CE9E9A-C178-445B-87C0-A2997AA9AE51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{F4CE9E9A-C178-445B-87C0-A2997AA9AE51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="83">
   <si>
     <t>確認事項</t>
     <rPh sb="0" eb="4">
@@ -218,13 +218,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初期状態</t>
-    <rPh sb="0" eb="2">
-      <t>ショk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>再入力が促される</t>
     <rPh sb="0" eb="2">
       <t>サイニュウリョk</t>
@@ -319,38 +312,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>case1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>case18/case1</t>
-    <rPh sb="0" eb="7">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case18/case2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case18/case1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case24/case2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case18/case3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case18/case4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case29/case3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -376,10 +338,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>case5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>何もしない</t>
     <rPh sb="0" eb="1">
       <t>ナニm</t>
@@ -387,10 +345,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>case24/case5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全ての長方形が削除されている</t>
     <rPh sb="0" eb="14">
       <t>スベテチョウホ</t>
@@ -419,14 +373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>case24/case6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>例外ケース</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -442,9 +388,94 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>処理の有無は考慮しない</t>
+    <t>case6</t>
+  </si>
+  <si>
+    <t>case4</t>
+  </si>
+  <si>
+    <t>case2</t>
+  </si>
+  <si>
+    <t>何もしない</t>
+    <rPh sb="0" eb="1">
+      <t>ナn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case25/case6</t>
+  </si>
+  <si>
+    <t>case25/case5</t>
+  </si>
+  <si>
+    <t>case30/case3</t>
+  </si>
+  <si>
+    <t>case25/case2</t>
+  </si>
+  <si>
+    <t>10回のやつ</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case3</t>
+  </si>
+  <si>
+    <t>case1</t>
+  </si>
+  <si>
+    <t>case18/case1</t>
+  </si>
+  <si>
+    <t>case18/case2</t>
+  </si>
+  <si>
+    <t>case18/case3</t>
+  </si>
+  <si>
+    <t>case18/case4</t>
+  </si>
+  <si>
+    <t>case5</t>
+  </si>
+  <si>
+    <t>case38/case6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長方形が作成されない</t>
     <rPh sb="0" eb="2">
-      <t>ショリ</t>
+      <t>チョウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外ケース</t>
+    <rPh sb="0" eb="1">
+      <t>レイガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長方形が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>チョウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理は考慮しない</t>
+    <rPh sb="0" eb="2">
+      <t>ショr</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -819,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F46812-9440-4E6A-A9AB-76741AD86005}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -835,6 +866,7 @@
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -860,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -876,9 +908,6 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -886,7 +915,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -897,13 +926,11 @@
         <v>9</v>
       </c>
       <c r="C3">
+        <f>COUNT($C$2:C2)+1</f>
         <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -912,7 +939,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -923,13 +950,11 @@
         <v>9</v>
       </c>
       <c r="C4">
+        <f>COUNT($C$2:C3)+1</f>
         <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -938,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -949,13 +974,11 @@
         <v>9</v>
       </c>
       <c r="C5">
+        <f>COUNT($C$2:C4)+1</f>
         <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -964,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -975,13 +998,11 @@
         <v>9</v>
       </c>
       <c r="C6">
+        <f>COUNT($C$2:C5)+1</f>
         <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -990,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1001,13 +1022,11 @@
         <v>9</v>
       </c>
       <c r="C7">
+        <f>COUNT($C$2:C6)+1</f>
         <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1016,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1027,22 +1046,20 @@
         <v>9</v>
       </c>
       <c r="C8">
+        <f>COUNT($C$2:C7)+1</f>
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1053,13 +1070,11 @@
         <v>9</v>
       </c>
       <c r="C9">
+        <f>COUNT($C$2:C8)+1</f>
         <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1068,7 +1083,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1079,13 +1094,11 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <f>COUNT($C$2:C9)+1</f>
         <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
@@ -1094,7 +1107,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1105,13 +1118,11 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <f>COUNT($C$2:C10)+1</f>
         <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -1120,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1131,13 +1142,11 @@
         <v>9</v>
       </c>
       <c r="C12">
+        <f>COUNT($C$2:C11)+1</f>
         <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1146,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1157,13 +1166,11 @@
         <v>9</v>
       </c>
       <c r="C13">
+        <f>COUNT($C$2:C12)+1</f>
         <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -1172,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1183,13 +1190,11 @@
         <v>9</v>
       </c>
       <c r="C14">
+        <f>COUNT($C$2:C13)+1</f>
         <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1198,7 +1203,7 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1209,13 +1214,11 @@
         <v>9</v>
       </c>
       <c r="C15">
+        <f>COUNT($C$2:C14)+1</f>
         <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1224,7 +1227,7 @@
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1235,22 +1238,20 @@
         <v>9</v>
       </c>
       <c r="C16">
+        <f>COUNT($C$2:C15)+1</f>
         <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1261,13 +1262,11 @@
         <v>9</v>
       </c>
       <c r="C17">
+        <f>COUNT($C$2:C16)+1</f>
         <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -1284,13 +1283,11 @@
         <v>9</v>
       </c>
       <c r="C18">
+        <f>COUNT($C$2:C17)+1</f>
         <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
@@ -1307,19 +1304,20 @@
         <v>28</v>
       </c>
       <c r="C19" s="2">
+        <f>COUNT($C$2:C18)+1</f>
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1364,7 +1362,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1382,22 +1380,23 @@
         <v>28</v>
       </c>
       <c r="C24" s="2">
+        <f>COUNT($C$2:C23)+1</f>
         <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
         <v>36</v>
-      </c>
-      <c r="H24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1407,7 +1406,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="3"/>
       <c r="F25">
         <v>0</v>
       </c>
@@ -1420,7 +1419,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="3"/>
       <c r="F26">
         <v>10</v>
       </c>
@@ -1433,7 +1432,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="3"/>
       <c r="F27">
         <v>10</v>
       </c>
@@ -1442,11 +1441,11 @@
     <row r="28" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="3"/>
       <c r="F28">
         <v>1</v>
       </c>
@@ -1460,22 +1459,23 @@
         <v>28</v>
       </c>
       <c r="C29" s="2">
+        <f>COUNT($C$2:C28)+1</f>
         <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1517,10 +1517,10 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -1538,25 +1538,26 @@
         <v>28</v>
       </c>
       <c r="C34" s="2">
+        <f>COUNT($C$2:C33)+1</f>
         <v>21</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>29</v>
@@ -1569,7 +1570,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
         <v>30</v>
@@ -1582,7 +1583,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
         <v>31</v>
@@ -1595,10 +1596,10 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1608,33 +1609,34 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2">
+        <f>COUNT($C$2:C38)+1</f>
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2"/>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1644,10 +1646,10 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41" s="2"/>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1657,36 +1659,37 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2">
+        <f>COUNT($C$2:C41)+1</f>
         <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2"/>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1696,10 +1699,10 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1709,59 +1712,74 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <f>COUNT($C$2:C44)+1</f>
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="2">
-        <v>24</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="2"/>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="C46" s="2">
+        <f>COUNT($C$2:C45)+1</f>
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F46">
         <v>5</v>
       </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="G46" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="2"/>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1774,59 +1792,60 @@
     <row r="49" spans="1:8">
       <c r="A49" s="2"/>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="2">
-        <v>25</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H50" t="s">
-        <v>37</v>
-      </c>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C51" s="2">
+        <f>COUNT($C$2:C50)+1</f>
+        <v>26</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="F51">
-        <v>5</v>
-      </c>
-      <c r="G51" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1837,45 +1856,46 @@
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B53" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="2">
-        <v>26</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53">
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="2">
+        <f>COUNT($C$2:C53)+1</f>
+        <v>27</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54">
         <v>1</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="2"/>
-      <c r="B54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2"/>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1886,162 +1906,165 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="2"/>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="2">
-        <v>27</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56">
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="2">
+        <f>COUNT($C$2:C56)+1</f>
+        <v>28</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57">
         <v>1</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="2"/>
-      <c r="B57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57">
-        <v>100</v>
-      </c>
-      <c r="G57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2"/>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2"/>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59">
         <v>10</v>
       </c>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="2" t="s">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="2">
-        <v>28</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59">
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="2">
+        <f>COUNT($C$2:C59)+1</f>
+        <v>29</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60">
         <v>1</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="2"/>
-      <c r="B60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60">
-        <v>-10</v>
-      </c>
-      <c r="G60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2"/>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61">
+        <v>-10</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2"/>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62">
         <v>10</v>
       </c>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="2" t="s">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="2">
-        <v>29</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="2"/>
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="C63" s="2">
+        <f>COUNT($C$2:C62)+1</f>
+        <v>30</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F63">
         <v>0</v>
       </c>
-      <c r="G63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2"/>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2"/>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2054,59 +2077,60 @@
     <row r="66" spans="1:8">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A67" s="2"/>
       <c r="B67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="2">
-        <v>30</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H67" t="s">
-        <v>37</v>
-      </c>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C68" s="2">
+        <f>COUNT($C$2:C67)+1</f>
+        <v>31</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F68">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2"/>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2117,183 +2141,370 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>16</v>
-      </c>
+      <c r="A70" s="2"/>
       <c r="B70" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70">
-        <v>31</v>
-      </c>
-      <c r="D70" t="s">
-        <v>48</v>
-      </c>
-      <c r="E70" t="s">
-        <v>55</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
       <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
-        <v>57</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C71">
+        <f>COUNT($C$2:C70)+1</f>
         <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G71" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72">
+        <f>COUNT($C$2:C71)+1</f>
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73">
+        <f>COUNT($C$2:C72)+1</f>
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" t="s">
+        <v>62</v>
+      </c>
+      <c r="F73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
         <v>17</v>
       </c>
-      <c r="B72" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72">
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74">
+        <f>COUNT($C$2:C73)+1</f>
+        <v>35</v>
+      </c>
+      <c r="D74" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75">
+        <f>COUNT($C$2:C74)+1</f>
+        <v>36</v>
+      </c>
+      <c r="D75" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="2">
+        <f>COUNT($C$2:C75)+1</f>
+        <v>37</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2"/>
+      <c r="B77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="2">
+        <f>COUNT($C$2:C77)+1</f>
+        <v>38</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2"/>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2"/>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2"/>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2"/>
+      <c r="B82" t="s">
         <v>33</v>
       </c>
-      <c r="D72" t="s">
-        <v>60</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="2">
+        <f>COUNT($C$2:C82)+1</f>
+        <v>39</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="2"/>
+      <c r="B84" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="1">
+        <f>COUNT($C$2:C84)+1</f>
+        <v>40</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="s">
         <v>61</v>
       </c>
-      <c r="F72" t="s">
-        <v>58</v>
-      </c>
-      <c r="G72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="2">
-        <v>34</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="2"/>
-      <c r="B74" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74">
-        <v>2</v>
-      </c>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="2">
-        <v>35</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="2"/>
-      <c r="B76" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76">
-        <v>2</v>
-      </c>
-      <c r="G76" s="2"/>
+      <c r="F85" t="s">
+        <v>50</v>
+      </c>
+      <c r="G85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="1">
+        <f>COUNT($C$2:C85)+1</f>
+        <v>41</v>
+      </c>
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="B87" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="G53:G55"/>
+  <mergeCells count="80">
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="E78:E82"/>
+    <mergeCell ref="G78:G82"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
     <mergeCell ref="G19:G23"/>
     <mergeCell ref="G29:G33"/>
     <mergeCell ref="A19:A23"/>
@@ -2309,31 +2520,36 @@
     <mergeCell ref="G24:G28"/>
     <mergeCell ref="C29:C33"/>
     <mergeCell ref="E29:E33"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="G63:G67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="A76:A77"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
